--- a/biology/Botanique/Forêts_mixtes_d'Europe_centrale/Forêts_mixtes_d'Europe_centrale.xlsx
+++ b/biology/Botanique/Forêts_mixtes_d'Europe_centrale/Forêts_mixtes_d'Europe_centrale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_mixtes_d%27Europe_centrale</t>
+          <t>Forêts_mixtes_d'Europe_centrale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts mixtes d'Europe centrale forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des forêts de feuillus et forêts mixtes tempérées de l'écozone paléarctique. Elle recouvre les plaines centrales d'Europe centrale, depuis l'est de l'Allemagne et les rivages de la mer Baltique jusqu'à la Valachie roumaine et à l'oblast de Bryansk en Russie. Elle comprend de larges portions de la Pologne, de la Lituanie, de la Biélorussie et de l'Ukraine, ainsi qu'une extension en République tchèque.
 </t>
